--- a/vignettes/mMARCH.AC.output.description.xlsx
+++ b/vignettes/mMARCH.AC.output.description.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\2\scp56237\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\vignettes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guow4\AppData\Local\Temp\2\scp50401\vf\users\guow4\project0\GGIR\postGGIR\postGGIR_compile\v2\mMARCH.AC\vignettes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC40FF4-0D77-4705-99C9-6ABF6D19F109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467CB769-CE35-4E18-972C-79B74518CD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4485" windowWidth="35430" windowHeight="16515" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="1200" windowWidth="29415" windowHeight="18600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="introduction" sheetId="1" r:id="rId1"/>
@@ -881,34 +881,6 @@
     <t>GGIR:  part2_daysummary.csv</t>
   </si>
   <si>
-    <r>
-      <t>./data/impu.flag_All_studyname_ENMO.data.</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>flag.epochOut</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>s.csv</t>
-    </r>
-  </si>
-  <si>
     <t>GGIR results: part2, part4 and part5</t>
   </si>
   <si>
@@ -972,33 +944,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve"> *</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>studyname, part5FN, flag.epochOut</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> are parameters specified by users.</t>
-    </r>
-  </si>
-  <si>
     <t>MVPA_dur</t>
   </si>
   <si>
@@ -1366,13 +1311,19 @@
   </si>
   <si>
     <t>The column of source indicates the feature source. "mMARCH.AC" indicates the feature was calculated based on activity data by the mMARCH.AC pipeline. "GGIR-part" indicates the feature was extracted from summary results from GGIR outputs.</t>
+  </si>
+  <si>
+    <t>./data/impu.flag_All_studyname_ENMO.data.epochOuts.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> *studyname, part5FN, epochOut are parameters specified by users.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="27" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1566,6 +1517,15 @@
     <font>
       <b/>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2184,15 +2144,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="25" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" readingOrder="1"/>
     </xf>
@@ -2212,6 +2163,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -2498,8 +2458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G92"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A21" sqref="A1:BP1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,13 +2493,13 @@
     </row>
     <row r="2" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A2" s="93" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="C2" s="75" t="s">
         <v>87</v>
       </c>
       <c r="D2" s="76" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="E2" s="94" t="s">
         <v>2</v>
@@ -2547,13 +2507,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="93" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C3" s="75" t="s">
         <v>17</v>
       </c>
       <c r="D3" s="76" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E3" s="94" t="s">
         <v>0</v>
@@ -2563,7 +2523,7 @@
       <c r="A4" s="93"/>
       <c r="C4" s="75"/>
       <c r="D4" s="76" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E4" s="94" t="s">
         <v>1</v>
@@ -2580,7 +2540,7 @@
       <c r="B6" s="42"/>
       <c r="C6" s="76"/>
       <c r="D6" s="76" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E6" s="94" t="s">
         <v>3</v>
@@ -2593,7 +2553,7 @@
       <c r="B7" s="43"/>
       <c r="C7" s="78"/>
       <c r="D7" s="76" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E7" s="94" t="s">
         <v>4</v>
@@ -2606,7 +2566,7 @@
       <c r="B8" s="43"/>
       <c r="C8" s="78"/>
       <c r="D8" s="76" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E8" s="94" t="s">
         <v>5</v>
@@ -2619,7 +2579,7 @@
       <c r="B9" s="43"/>
       <c r="C9" s="78"/>
       <c r="D9" s="76" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E9" s="94" t="s">
         <v>6</v>
@@ -2632,7 +2592,7 @@
       <c r="B10" s="43"/>
       <c r="C10" s="78"/>
       <c r="D10" s="76" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E10" s="94" t="s">
         <v>163</v>
@@ -2645,10 +2605,10 @@
       <c r="B11" s="43"/>
       <c r="C11" s="78"/>
       <c r="D11" s="76" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E11" s="94" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F11" s="78"/>
       <c r="G11" s="78"/>
@@ -2664,7 +2624,7 @@
       <c r="B13" s="44"/>
       <c r="C13" s="79"/>
       <c r="D13" s="79" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E13" s="97" t="s">
         <v>7</v>
@@ -2689,7 +2649,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="93" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B15" s="45" t="s">
         <v>269</v>
@@ -2706,7 +2666,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="93" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C16" s="75"/>
       <c r="D16" s="76" t="s">
@@ -2863,7 +2823,7 @@
     </row>
     <row r="32" spans="1:7" ht="39" x14ac:dyDescent="0.25">
       <c r="A32" s="93" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C32" s="76" t="s">
         <v>84</v>
@@ -2877,7 +2837,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="93" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B33" s="42" t="s">
         <v>272</v>
@@ -2893,14 +2853,14 @@
     <row r="34" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A34" s="93"/>
       <c r="B34" s="46" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C34" s="76"/>
       <c r="D34" s="76" t="s">
         <v>81</v>
       </c>
       <c r="E34" s="94" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
@@ -2913,7 +2873,7 @@
         <v>82</v>
       </c>
       <c r="E35" s="94" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="36" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -2935,10 +2895,10 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="93" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B37" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C37" s="75" t="s">
         <v>83</v>
@@ -2952,7 +2912,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="93" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B38" s="48" t="s">
         <v>270</v>
@@ -2994,7 +2954,7 @@
     </row>
     <row r="41" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A41" s="93" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C41" s="75" t="s">
         <v>83</v>
@@ -3008,7 +2968,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="93" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B42" s="49" t="s">
         <v>273</v>
@@ -3057,7 +3017,7 @@
         <v>86</v>
       </c>
       <c r="D45" s="76" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="E45" s="94" t="s">
         <v>90</v>
@@ -3077,7 +3037,7 @@
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="93"/>
       <c r="B47" s="42" t="s">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="C47" s="76"/>
       <c r="D47" s="76"/>
@@ -3095,7 +3055,7 @@
         <v>86</v>
       </c>
       <c r="D48" s="73" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E48" s="92" t="s">
         <v>91</v>
@@ -3143,7 +3103,7 @@
         <v>86</v>
       </c>
       <c r="D51" s="73" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E51" s="92" t="s">
         <v>105</v>
@@ -3154,11 +3114,11 @@
     <row r="52" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="93"/>
       <c r="B52" s="42" t="s">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="C52" s="85"/>
       <c r="D52" s="76" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="E52" s="94" t="s">
         <v>5</v>
@@ -3173,7 +3133,7 @@
       </c>
       <c r="C53" s="85"/>
       <c r="D53" s="76" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E53" s="102" t="s">
         <v>106</v>
@@ -3186,7 +3146,7 @@
       <c r="B54" s="42"/>
       <c r="C54" s="85"/>
       <c r="D54" s="76" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E54" s="102" t="s">
         <v>107</v>
@@ -3199,7 +3159,7 @@
       <c r="B55" s="42"/>
       <c r="C55" s="85"/>
       <c r="D55" s="76" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E55" s="102" t="s">
         <v>108</v>
@@ -3212,7 +3172,7 @@
       <c r="B56" s="42"/>
       <c r="C56" s="85"/>
       <c r="D56" s="76" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E56" s="102" t="s">
         <v>109</v>
@@ -3225,7 +3185,7 @@
       <c r="B57" s="44"/>
       <c r="C57" s="86"/>
       <c r="D57" s="79" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E57" s="103" t="s">
         <v>110</v>
@@ -3245,7 +3205,7 @@
         <v>86</v>
       </c>
       <c r="D58" s="76" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="E58" s="94" t="s">
         <v>6</v>
@@ -3260,7 +3220,7 @@
       </c>
       <c r="C59" s="85"/>
       <c r="D59" s="76" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E59" s="104" t="s">
         <v>111</v>
@@ -3271,11 +3231,11 @@
     <row r="60" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="101"/>
       <c r="B60" s="46" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C60" s="85"/>
       <c r="D60" s="76" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E60" s="104" t="s">
         <v>112</v>
@@ -3290,10 +3250,10 @@
       </c>
       <c r="C61" s="85"/>
       <c r="D61" s="76" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E61" s="102" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F61" s="81"/>
       <c r="G61" s="81"/>
@@ -3301,14 +3261,14 @@
     <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="101"/>
       <c r="B62" s="46" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C62" s="85"/>
       <c r="D62" s="76" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E62" s="102" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F62" s="81"/>
       <c r="G62" s="81"/>
@@ -3316,11 +3276,11 @@
     <row r="63" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="101"/>
       <c r="B63" s="43" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C63" s="85"/>
       <c r="D63" s="76" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E63" s="104" t="s">
         <v>113</v>
@@ -3333,10 +3293,10 @@
       <c r="B64" s="46"/>
       <c r="C64" s="85"/>
       <c r="D64" s="76" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E64" s="102" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F64" s="81"/>
       <c r="G64" s="81"/>
@@ -3346,10 +3306,10 @@
       <c r="B65" s="43"/>
       <c r="C65" s="82"/>
       <c r="D65" s="76" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E65" s="102" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F65" s="81"/>
       <c r="G65" s="81"/>
@@ -3359,7 +3319,7 @@
       <c r="B66" s="43"/>
       <c r="C66" s="85"/>
       <c r="D66" s="76" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="E66" s="104" t="s">
         <v>166</v>
@@ -3377,7 +3337,7 @@
         <v>86</v>
       </c>
       <c r="D67" s="73" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="E67" s="92" t="s">
         <v>163</v>
@@ -3388,11 +3348,11 @@
     <row r="68" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="93"/>
       <c r="B68" s="42" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C68" s="85"/>
       <c r="D68" s="76" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E68" s="94" t="s">
         <v>164</v>
@@ -3403,11 +3363,11 @@
     <row r="69" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="96"/>
       <c r="B69" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="C69" s="88"/>
       <c r="D69" s="79" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="E69" s="94" t="s">
         <v>165</v>
@@ -3425,10 +3385,10 @@
         <v>86</v>
       </c>
       <c r="D70" s="76" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E70" s="92" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F70" s="81"/>
       <c r="G70" s="81"/>
@@ -3436,11 +3396,11 @@
     <row r="71" spans="1:7" s="1" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="93"/>
       <c r="B71" s="42" t="s">
-        <v>281</v>
+        <v>408</v>
       </c>
       <c r="C71" s="85"/>
       <c r="D71" s="76" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E71" s="94" t="s">
         <v>163</v>
@@ -3453,7 +3413,7 @@
       <c r="B72" s="42"/>
       <c r="C72" s="85"/>
       <c r="D72" s="76" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E72" s="94" t="s">
         <v>167</v>
@@ -3466,7 +3426,7 @@
       <c r="B73" s="42"/>
       <c r="C73" s="85"/>
       <c r="D73" s="76" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="E73" s="102" t="s">
         <v>169</v>
@@ -3479,7 +3439,7 @@
       <c r="B74" s="42"/>
       <c r="C74" s="85"/>
       <c r="D74" s="76" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="E74" s="102" t="s">
         <v>170</v>
@@ -3492,7 +3452,7 @@
       <c r="B75" s="42"/>
       <c r="C75" s="85"/>
       <c r="D75" s="76" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E75" s="94" t="s">
         <v>168</v>
@@ -3505,7 +3465,7 @@
       <c r="B76" s="42"/>
       <c r="C76" s="85"/>
       <c r="D76" s="76" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E76" s="102" t="s">
         <v>171</v>
@@ -3518,29 +3478,29 @@
       <c r="B77" s="106"/>
       <c r="C77" s="107"/>
       <c r="D77" s="108" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="E77" s="109" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="114" t="s">
+      <c r="A78" s="123" t="s">
         <v>161</v>
       </c>
-      <c r="B78" s="115"/>
-      <c r="C78" s="115"/>
-      <c r="D78" s="115"/>
-      <c r="E78" s="115"/>
+      <c r="B78" s="124"/>
+      <c r="C78" s="124"/>
+      <c r="D78" s="124"/>
+      <c r="E78" s="124"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="114" t="s">
-        <v>286</v>
-      </c>
-      <c r="B79" s="116"/>
-      <c r="C79" s="116"/>
-      <c r="D79" s="116"/>
-      <c r="E79" s="116"/>
+      <c r="A79" s="123" t="s">
+        <v>409</v>
+      </c>
+      <c r="B79" s="125"/>
+      <c r="C79" s="125"/>
+      <c r="D79" s="125"/>
+      <c r="E79" s="125"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="76"/>
@@ -3737,7 +3697,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B14" s="64" t="s">
         <v>41</v>
@@ -3745,7 +3705,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="68" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B15" s="64" t="s">
         <v>42</v>
@@ -3788,7 +3748,7 @@
         <v>66</v>
       </c>
       <c r="B20" s="64" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +3785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FA7404A-E53D-4E1B-ADF8-894BCE271B5E}">
   <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+    <sheetView topLeftCell="C61" workbookViewId="0">
       <selection activeCell="F99" sqref="F99"/>
     </sheetView>
   </sheetViews>
@@ -3863,7 +3823,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="120" t="s">
+      <c r="A2" s="117" t="s">
         <v>116</v>
       </c>
       <c r="B2" s="12" t="s">
@@ -3876,7 +3836,7 @@
         <v>178</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>117</v>
@@ -3887,7 +3847,7 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="121"/>
+      <c r="A3" s="118"/>
       <c r="B3" s="12" t="s">
         <v>176</v>
       </c>
@@ -3898,7 +3858,7 @@
         <v>181</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>118</v>
@@ -3909,7 +3869,7 @@
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A4" s="121"/>
+      <c r="A4" s="118"/>
       <c r="B4" s="12" t="s">
         <v>176</v>
       </c>
@@ -3920,7 +3880,7 @@
         <v>183</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F4" s="12" t="s">
         <v>119</v>
@@ -3931,7 +3891,7 @@
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
+      <c r="A5" s="118"/>
       <c r="B5" s="12" t="s">
         <v>176</v>
       </c>
@@ -3942,7 +3902,7 @@
         <v>121</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F5" s="12" t="s">
         <v>120</v>
@@ -3953,7 +3913,7 @@
       <c r="I5" s="15"/>
     </row>
     <row r="6" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="121"/>
+      <c r="A6" s="118"/>
       <c r="B6" s="12" t="s">
         <v>176</v>
       </c>
@@ -3961,10 +3921,10 @@
         <v>122</v>
       </c>
       <c r="D6" s="58" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="E6" s="56" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F6" s="12" t="s">
         <v>122</v>
@@ -3978,7 +3938,7 @@
       <c r="I6" s="15"/>
     </row>
     <row r="7" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="121"/>
+      <c r="A7" s="118"/>
       <c r="B7" s="12" t="s">
         <v>176</v>
       </c>
@@ -3986,10 +3946,10 @@
         <v>123</v>
       </c>
       <c r="D7" s="58" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E7" s="57" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F7" s="12" t="s">
         <v>123</v>
@@ -4003,7 +3963,7 @@
       <c r="I7" s="15"/>
     </row>
     <row r="8" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="121"/>
+      <c r="A8" s="118"/>
       <c r="B8" s="12" t="s">
         <v>176</v>
       </c>
@@ -4014,7 +3974,7 @@
         <v>125</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F8" s="12" t="s">
         <v>124</v>
@@ -4025,7 +3985,7 @@
       <c r="I8" s="15"/>
     </row>
     <row r="9" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="121"/>
+      <c r="A9" s="118"/>
       <c r="B9" s="12" t="s">
         <v>176</v>
       </c>
@@ -4036,7 +3996,7 @@
         <v>127</v>
       </c>
       <c r="E9" s="56" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F9" s="12" t="s">
         <v>126</v>
@@ -4047,7 +4007,7 @@
       <c r="I9" s="15"/>
     </row>
     <row r="10" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="122"/>
+      <c r="A10" s="119"/>
       <c r="B10" s="12" t="s">
         <v>176</v>
       </c>
@@ -4058,7 +4018,7 @@
         <v>188</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F10" s="12" t="s">
         <v>128</v>
@@ -4069,7 +4029,7 @@
       <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="123" t="s">
+      <c r="A11" s="120" t="s">
         <v>189</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -4079,10 +4039,10 @@
         <v>129</v>
       </c>
       <c r="D11" s="23" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F11" s="21"/>
       <c r="G11" s="69" t="s">
@@ -4091,7 +4051,7 @@
       <c r="I11" s="15"/>
     </row>
     <row r="12" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="124"/>
+      <c r="A12" s="121"/>
       <c r="B12" s="21" t="s">
         <v>190</v>
       </c>
@@ -4099,10 +4059,10 @@
         <v>130</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F12" s="21"/>
       <c r="G12" s="69" t="s">
@@ -4110,18 +4070,18 @@
       </c>
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="124"/>
+      <c r="A13" s="121"/>
       <c r="B13" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F13" s="21"/>
       <c r="G13" s="69" t="s">
@@ -4131,18 +4091,18 @@
       <c r="J13"/>
     </row>
     <row r="14" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="124"/>
+      <c r="A14" s="121"/>
       <c r="B14" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C14" s="21" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F14" s="21"/>
       <c r="G14" s="69" t="s">
@@ -4150,18 +4110,18 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="124"/>
+      <c r="A15" s="121"/>
       <c r="B15" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>191</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="69" t="s">
@@ -4170,18 +4130,18 @@
       <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="124"/>
+      <c r="A16" s="121"/>
       <c r="B16" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>192</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="69" t="s">
@@ -4189,18 +4149,18 @@
       </c>
     </row>
     <row r="17" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="124"/>
+      <c r="A17" s="121"/>
       <c r="B17" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D17" s="23" t="s">
         <v>193</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="69" t="s">
@@ -4208,18 +4168,18 @@
       </c>
     </row>
     <row r="18" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="124"/>
+      <c r="A18" s="121"/>
       <c r="B18" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>194</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="69" t="s">
@@ -4227,18 +4187,18 @@
       </c>
     </row>
     <row r="19" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="124"/>
+      <c r="A19" s="121"/>
       <c r="B19" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C19" s="24" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>195</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="69" t="s">
@@ -4246,18 +4206,18 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="124"/>
+      <c r="A20" s="121"/>
       <c r="B20" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C20" s="24" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>196</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="69" t="s">
@@ -4265,18 +4225,18 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="124"/>
+      <c r="A21" s="121"/>
       <c r="B21" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>197</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="69" t="s">
@@ -4284,18 +4244,18 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="124"/>
+      <c r="A22" s="121"/>
       <c r="B22" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C22" s="24" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>198</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="69" t="s">
@@ -4303,18 +4263,18 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="124"/>
+      <c r="A23" s="121"/>
       <c r="B23" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>199</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="69" t="s">
@@ -4322,18 +4282,18 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="124"/>
+      <c r="A24" s="121"/>
       <c r="B24" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>200</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="69" t="s">
@@ -4341,18 +4301,18 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="124"/>
+      <c r="A25" s="121"/>
       <c r="B25" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C25" s="24" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>201</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="69" t="s">
@@ -4360,18 +4320,18 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="124"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>202</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="69" t="s">
@@ -4379,18 +4339,18 @@
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="124"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C27" s="24" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>203</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="69" t="s">
@@ -4398,18 +4358,18 @@
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="124"/>
+      <c r="A28" s="121"/>
       <c r="B28" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C28" s="24" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>204</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="69" t="s">
@@ -4417,18 +4377,18 @@
       </c>
     </row>
     <row r="29" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="124"/>
+      <c r="A29" s="121"/>
       <c r="B29" s="21" t="s">
         <v>190</v>
       </c>
       <c r="C29" s="24" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>205</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="69" t="s">
@@ -4436,7 +4396,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="124"/>
+      <c r="A30" s="121"/>
       <c r="B30" s="21" t="s">
         <v>190</v>
       </c>
@@ -4444,10 +4404,10 @@
         <v>206</v>
       </c>
       <c r="D30" s="51" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="69" t="s">
@@ -4455,7 +4415,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="124"/>
+      <c r="A31" s="121"/>
       <c r="B31" s="21" t="s">
         <v>190</v>
       </c>
@@ -4463,10 +4423,10 @@
         <v>207</v>
       </c>
       <c r="D31" s="51" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="69" t="s">
@@ -4474,7 +4434,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="124"/>
+      <c r="A32" s="121"/>
       <c r="B32" s="21" t="s">
         <v>190</v>
       </c>
@@ -4482,10 +4442,10 @@
         <v>208</v>
       </c>
       <c r="D32" s="51" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="69" t="s">
@@ -4493,7 +4453,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="124"/>
+      <c r="A33" s="121"/>
       <c r="B33" s="21" t="s">
         <v>190</v>
       </c>
@@ -4501,10 +4461,10 @@
         <v>209</v>
       </c>
       <c r="D33" s="51" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="69" t="s">
@@ -4512,7 +4472,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="124"/>
+      <c r="A34" s="121"/>
       <c r="B34" s="21" t="s">
         <v>190</v>
       </c>
@@ -4520,10 +4480,10 @@
         <v>210</v>
       </c>
       <c r="D34" s="51" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="69" t="s">
@@ -4531,7 +4491,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="124"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="21" t="s">
         <v>190</v>
       </c>
@@ -4539,10 +4499,10 @@
         <v>211</v>
       </c>
       <c r="D35" s="51" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="69" t="s">
@@ -4550,7 +4510,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A36" s="124"/>
+      <c r="A36" s="121"/>
       <c r="B36" s="21" t="s">
         <v>190</v>
       </c>
@@ -4558,10 +4518,10 @@
         <v>212</v>
       </c>
       <c r="D36" s="51" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="69" t="s">
@@ -4569,7 +4529,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A37" s="124"/>
+      <c r="A37" s="121"/>
       <c r="B37" s="21" t="s">
         <v>190</v>
       </c>
@@ -4577,10 +4537,10 @@
         <v>213</v>
       </c>
       <c r="D37" s="51" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="69" t="s">
@@ -4588,7 +4548,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A38" s="124"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="21" t="s">
         <v>190</v>
       </c>
@@ -4596,10 +4556,10 @@
         <v>214</v>
       </c>
       <c r="D38" s="51" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="69" t="s">
@@ -4607,7 +4567,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A39" s="124"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="21" t="s">
         <v>190</v>
       </c>
@@ -4615,10 +4575,10 @@
         <v>215</v>
       </c>
       <c r="D39" s="51" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="69" t="s">
@@ -4626,7 +4586,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="124"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="21" t="s">
         <v>190</v>
       </c>
@@ -4637,7 +4597,7 @@
         <v>132</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F40" s="21" t="s">
         <v>131</v>
@@ -4647,7 +4607,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A41" s="124"/>
+      <c r="A41" s="121"/>
       <c r="B41" s="21" t="s">
         <v>190</v>
       </c>
@@ -4658,7 +4618,7 @@
         <v>134</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F41" s="21" t="s">
         <v>133</v>
@@ -4668,7 +4628,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="124"/>
+      <c r="A42" s="121"/>
       <c r="B42" s="21" t="s">
         <v>190</v>
       </c>
@@ -4679,7 +4639,7 @@
         <v>136</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F42" s="21" t="s">
         <v>135</v>
@@ -4689,7 +4649,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="124"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="21" t="s">
         <v>190</v>
       </c>
@@ -4700,7 +4660,7 @@
         <v>138</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F43" s="21" t="s">
         <v>137</v>
@@ -4710,7 +4670,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="124"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="21" t="s">
         <v>190</v>
       </c>
@@ -4721,7 +4681,7 @@
         <v>221</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F44" s="21"/>
       <c r="G44" s="69" t="s">
@@ -4729,7 +4689,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="124"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="21" t="s">
         <v>190</v>
       </c>
@@ -4740,7 +4700,7 @@
         <v>223</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F45" s="21"/>
       <c r="G45" s="69" t="s">
@@ -4748,7 +4708,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="124"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="21" t="s">
         <v>190</v>
       </c>
@@ -4759,7 +4719,7 @@
         <v>225</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F46" s="21"/>
       <c r="G46" s="69" t="s">
@@ -4767,7 +4727,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="124"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="21" t="s">
         <v>190</v>
       </c>
@@ -4778,7 +4738,7 @@
         <v>227</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F47" s="21"/>
       <c r="G47" s="69" t="s">
@@ -4786,7 +4746,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="124"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="21" t="s">
         <v>190</v>
       </c>
@@ -4797,7 +4757,7 @@
         <v>229</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F48" s="21"/>
       <c r="G48" s="69" t="s">
@@ -4805,7 +4765,7 @@
       </c>
     </row>
     <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="124"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="21" t="s">
         <v>190</v>
       </c>
@@ -4816,7 +4776,7 @@
         <v>231</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F49" s="21"/>
       <c r="G49" s="69" t="s">
@@ -4824,7 +4784,7 @@
       </c>
     </row>
     <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="124"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="21" t="s">
         <v>190</v>
       </c>
@@ -4835,7 +4795,7 @@
         <v>233</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F50" s="21"/>
       <c r="G50" s="69" t="s">
@@ -4843,7 +4803,7 @@
       </c>
     </row>
     <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="124"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="21" t="s">
         <v>190</v>
       </c>
@@ -4854,7 +4814,7 @@
         <v>235</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F51" s="21"/>
       <c r="G51" s="69" t="s">
@@ -4862,7 +4822,7 @@
       </c>
     </row>
     <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="124"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="21" t="s">
         <v>190</v>
       </c>
@@ -4873,7 +4833,7 @@
         <v>237</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F52" s="21"/>
       <c r="G52" s="69" t="s">
@@ -4881,7 +4841,7 @@
       </c>
     </row>
     <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="124"/>
+      <c r="A53" s="121"/>
       <c r="B53" s="21" t="s">
         <v>190</v>
       </c>
@@ -4892,7 +4852,7 @@
         <v>239</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F53" s="21"/>
       <c r="G53" s="69" t="s">
@@ -4900,7 +4860,7 @@
       </c>
     </row>
     <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="124"/>
+      <c r="A54" s="121"/>
       <c r="B54" s="21" t="s">
         <v>190</v>
       </c>
@@ -4911,7 +4871,7 @@
         <v>241</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F54" s="21"/>
       <c r="G54" s="69" t="s">
@@ -4919,7 +4879,7 @@
       </c>
     </row>
     <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="124"/>
+      <c r="A55" s="121"/>
       <c r="B55" s="21" t="s">
         <v>190</v>
       </c>
@@ -4930,7 +4890,7 @@
         <v>243</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F55" s="21"/>
       <c r="G55" s="69" t="s">
@@ -4938,7 +4898,7 @@
       </c>
     </row>
     <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="124"/>
+      <c r="A56" s="121"/>
       <c r="B56" s="21" t="s">
         <v>190</v>
       </c>
@@ -4949,7 +4909,7 @@
         <v>140</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F56" s="21" t="s">
         <v>139</v>
@@ -4959,7 +4919,7 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="124"/>
+      <c r="A57" s="121"/>
       <c r="B57" s="21" t="s">
         <v>190</v>
       </c>
@@ -4970,7 +4930,7 @@
         <v>142</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F57" s="21" t="s">
         <v>141</v>
@@ -4980,7 +4940,7 @@
       </c>
     </row>
     <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="124"/>
+      <c r="A58" s="121"/>
       <c r="B58" s="21" t="s">
         <v>190</v>
       </c>
@@ -4991,7 +4951,7 @@
         <v>144</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F58" s="21" t="s">
         <v>143</v>
@@ -5001,7 +4961,7 @@
       </c>
     </row>
     <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="125"/>
+      <c r="A59" s="122"/>
       <c r="B59" s="21" t="s">
         <v>190</v>
       </c>
@@ -5012,7 +4972,7 @@
         <v>146</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F59" s="21" t="s">
         <v>145</v>
@@ -5022,7 +4982,7 @@
       </c>
     </row>
     <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="117" t="s">
+      <c r="A60" s="114" t="s">
         <v>151</v>
       </c>
       <c r="B60" s="26" t="s">
@@ -5032,10 +4992,10 @@
         <v>147</v>
       </c>
       <c r="D60" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E60" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F60" s="26"/>
       <c r="G60" s="69" t="s">
@@ -5046,7 +5006,7 @@
       </c>
     </row>
     <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="118"/>
+      <c r="A61" s="115"/>
       <c r="B61" s="26" t="s">
         <v>248</v>
       </c>
@@ -5054,10 +5014,10 @@
         <v>148</v>
       </c>
       <c r="D61" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F61" s="26"/>
       <c r="G61" s="69" t="s">
@@ -5065,7 +5025,7 @@
       </c>
     </row>
     <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="118"/>
+      <c r="A62" s="115"/>
       <c r="B62" s="26" t="s">
         <v>248</v>
       </c>
@@ -5073,10 +5033,10 @@
         <v>149</v>
       </c>
       <c r="D62" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F62" s="26"/>
       <c r="G62" s="69" t="s">
@@ -5084,7 +5044,7 @@
       </c>
     </row>
     <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="118"/>
+      <c r="A63" s="115"/>
       <c r="B63" s="26" t="s">
         <v>248</v>
       </c>
@@ -5092,10 +5052,10 @@
         <v>150</v>
       </c>
       <c r="D63" s="29" t="s">
+        <v>343</v>
+      </c>
+      <c r="E63" s="26" t="s">
         <v>345</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>347</v>
       </c>
       <c r="F63" s="26"/>
       <c r="G63" s="69" t="s">
@@ -5103,7 +5063,7 @@
       </c>
     </row>
     <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="118"/>
+      <c r="A64" s="115"/>
       <c r="B64" s="26" t="s">
         <v>248</v>
       </c>
@@ -5111,10 +5071,10 @@
         <v>152</v>
       </c>
       <c r="D64" s="28" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F64" s="26"/>
       <c r="G64" s="69" t="s">
@@ -5122,7 +5082,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="118"/>
+      <c r="A65" s="115"/>
       <c r="B65" s="26" t="s">
         <v>248</v>
       </c>
@@ -5130,10 +5090,10 @@
         <v>251</v>
       </c>
       <c r="D65" s="29" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E65" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F65" s="30"/>
       <c r="G65" s="69" t="s">
@@ -5141,7 +5101,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="118"/>
+      <c r="A66" s="115"/>
       <c r="B66" s="26" t="s">
         <v>248</v>
       </c>
@@ -5149,10 +5109,10 @@
         <v>250</v>
       </c>
       <c r="D66" s="29" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E66" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F66" s="30"/>
       <c r="G66" s="69" t="s">
@@ -5160,7 +5120,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A67" s="118"/>
+      <c r="A67" s="115"/>
       <c r="B67" s="26" t="s">
         <v>248</v>
       </c>
@@ -5168,10 +5128,10 @@
         <v>252</v>
       </c>
       <c r="D67" s="29" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="E67" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F67" s="26" t="s">
         <v>17</v>
@@ -5181,7 +5141,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A68" s="118"/>
+      <c r="A68" s="115"/>
       <c r="B68" s="26" t="s">
         <v>248</v>
       </c>
@@ -5189,10 +5149,10 @@
         <v>253</v>
       </c>
       <c r="D68" s="29" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E68" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F68" s="26" t="s">
         <v>17</v>
@@ -5202,7 +5162,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A69" s="118"/>
+      <c r="A69" s="115"/>
       <c r="B69" s="26" t="s">
         <v>248</v>
       </c>
@@ -5213,7 +5173,7 @@
         <v>249</v>
       </c>
       <c r="E69" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F69" s="26"/>
       <c r="G69" s="69" t="s">
@@ -5221,7 +5181,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="118"/>
+      <c r="A70" s="115"/>
       <c r="B70" s="32" t="s">
         <v>248</v>
       </c>
@@ -5229,10 +5189,10 @@
         <v>154</v>
       </c>
       <c r="D70" s="53" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E70" s="32" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F70" s="26"/>
       <c r="G70" s="69" t="s">
@@ -5240,7 +5200,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A71" s="118"/>
+      <c r="A71" s="115"/>
       <c r="B71" s="34" t="s">
         <v>248</v>
       </c>
@@ -5248,10 +5208,10 @@
         <v>256</v>
       </c>
       <c r="D71" s="52" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E71" s="36" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F71" s="26"/>
       <c r="G71" s="70" t="s">
@@ -5259,7 +5219,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A72" s="118"/>
+      <c r="A72" s="115"/>
       <c r="B72" s="26" t="s">
         <v>248</v>
       </c>
@@ -5267,10 +5227,10 @@
         <v>254</v>
       </c>
       <c r="D72" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E72" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F72" s="26"/>
       <c r="G72" s="70" t="s">
@@ -5278,7 +5238,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A73" s="118"/>
+      <c r="A73" s="115"/>
       <c r="B73" s="26" t="s">
         <v>248</v>
       </c>
@@ -5286,10 +5246,10 @@
         <v>255</v>
       </c>
       <c r="D73" s="31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E73" s="26" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F73" s="26"/>
       <c r="G73" s="70" t="s">
@@ -5297,7 +5257,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A74" s="118"/>
+      <c r="A74" s="115"/>
       <c r="B74" s="26" t="s">
         <v>248</v>
       </c>
@@ -5305,10 +5265,10 @@
         <v>258</v>
       </c>
       <c r="D74" s="31" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E74" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F74" s="26"/>
       <c r="G74" s="70" t="s">
@@ -5316,7 +5276,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A75" s="118"/>
+      <c r="A75" s="115"/>
       <c r="B75" s="26" t="s">
         <v>248</v>
       </c>
@@ -5324,10 +5284,10 @@
         <v>259</v>
       </c>
       <c r="D75" s="31" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F75" s="30"/>
       <c r="G75" s="70" t="s">
@@ -5335,7 +5295,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A76" s="118"/>
+      <c r="A76" s="115"/>
       <c r="B76" s="26" t="s">
         <v>248</v>
       </c>
@@ -5343,10 +5303,10 @@
         <v>260</v>
       </c>
       <c r="D76" s="31" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E76" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F76" s="30"/>
       <c r="G76" s="70" t="s">
@@ -5354,7 +5314,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A77" s="118"/>
+      <c r="A77" s="115"/>
       <c r="B77" s="26" t="s">
         <v>248</v>
       </c>
@@ -5362,10 +5322,10 @@
         <v>261</v>
       </c>
       <c r="D77" s="31" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E77" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F77" s="26"/>
       <c r="G77" s="70" t="s">
@@ -5373,7 +5333,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A78" s="118"/>
+      <c r="A78" s="115"/>
       <c r="B78" s="26" t="s">
         <v>248</v>
       </c>
@@ -5381,10 +5341,10 @@
         <v>155</v>
       </c>
       <c r="D78" s="31" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E78" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F78" s="30"/>
       <c r="G78" s="70" t="s">
@@ -5392,7 +5352,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A79" s="118"/>
+      <c r="A79" s="115"/>
       <c r="B79" s="26" t="s">
         <v>248</v>
       </c>
@@ -5400,10 +5360,10 @@
         <v>156</v>
       </c>
       <c r="D79" s="31" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E79" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F79" s="30"/>
       <c r="G79" s="70" t="s">
@@ -5411,7 +5371,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A80" s="118"/>
+      <c r="A80" s="115"/>
       <c r="B80" s="26" t="s">
         <v>248</v>
       </c>
@@ -5419,10 +5379,10 @@
         <v>157</v>
       </c>
       <c r="D80" s="29" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E80" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F80" s="30"/>
       <c r="G80" s="70" t="s">
@@ -5430,7 +5390,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A81" s="118"/>
+      <c r="A81" s="115"/>
       <c r="B81" s="26" t="s">
         <v>248</v>
       </c>
@@ -5438,10 +5398,10 @@
         <v>158</v>
       </c>
       <c r="D81" s="29" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E81" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F81" s="30"/>
       <c r="G81" s="70" t="s">
@@ -5449,7 +5409,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A82" s="118"/>
+      <c r="A82" s="115"/>
       <c r="B82" s="26" t="s">
         <v>248</v>
       </c>
@@ -5457,10 +5417,10 @@
         <v>159</v>
       </c>
       <c r="D82" s="29" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E82" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F82" s="30"/>
       <c r="G82" s="70" t="s">
@@ -5468,7 +5428,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A83" s="118"/>
+      <c r="A83" s="115"/>
       <c r="B83" s="26" t="s">
         <v>248</v>
       </c>
@@ -5476,10 +5436,10 @@
         <v>160</v>
       </c>
       <c r="D83" s="29" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E83" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F83" s="30"/>
       <c r="G83" s="70" t="s">
@@ -5487,7 +5447,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A84" s="118"/>
+      <c r="A84" s="115"/>
       <c r="B84" s="26" t="s">
         <v>248</v>
       </c>
@@ -5495,10 +5455,10 @@
         <v>262</v>
       </c>
       <c r="D84" s="29" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E84" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F84" s="30"/>
       <c r="G84" s="70" t="s">
@@ -5506,7 +5466,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A85" s="118"/>
+      <c r="A85" s="115"/>
       <c r="B85" s="26" t="s">
         <v>248</v>
       </c>
@@ -5514,10 +5474,10 @@
         <v>263</v>
       </c>
       <c r="D85" s="29" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E85" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F85" s="30"/>
       <c r="G85" s="70" t="s">
@@ -5525,7 +5485,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A86" s="118"/>
+      <c r="A86" s="115"/>
       <c r="B86" s="26" t="s">
         <v>248</v>
       </c>
@@ -5533,10 +5493,10 @@
         <v>264</v>
       </c>
       <c r="D86" s="29" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E86" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F86" s="30"/>
       <c r="G86" s="70" t="s">
@@ -5544,7 +5504,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A87" s="118"/>
+      <c r="A87" s="115"/>
       <c r="B87" s="26" t="s">
         <v>248</v>
       </c>
@@ -5552,10 +5512,10 @@
         <v>265</v>
       </c>
       <c r="D87" s="29" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="E87" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F87" s="30"/>
       <c r="G87" s="70" t="s">
@@ -5563,7 +5523,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A88" s="118"/>
+      <c r="A88" s="115"/>
       <c r="B88" s="26" t="s">
         <v>248</v>
       </c>
@@ -5571,10 +5531,10 @@
         <v>266</v>
       </c>
       <c r="D88" s="29" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F88" s="30"/>
       <c r="G88" s="70" t="s">
@@ -5582,7 +5542,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" ht="15" x14ac:dyDescent="0.25">
-      <c r="A89" s="119"/>
+      <c r="A89" s="116"/>
       <c r="B89" s="26" t="s">
         <v>248</v>
       </c>
@@ -5590,10 +5550,10 @@
         <v>267</v>
       </c>
       <c r="D89" s="29" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E89" s="26" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="F89" s="30"/>
       <c r="G89" s="70" t="s">
@@ -5602,15 +5562,15 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C90" s="55" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D90" s="54" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D91" s="62" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.25"/>
